--- a/examples/datasheet/全局变量表.xlsx
+++ b/examples/datasheet/全局变量表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\datasheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="7830"/>
+    <workbookView windowWidth="23325" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>string</t>
   </si>
@@ -28,30 +23,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>变量名</t>
   </si>
   <si>
+    <t>变量类型</t>
+  </si>
+  <si>
+    <t>变量值</t>
+  </si>
+  <si>
     <t>变量描述</t>
   </si>
   <si>
-    <t>变量类型</t>
-  </si>
-  <si>
-    <t>变量值</t>
-  </si>
-  <si>
     <t>GoldExchangeTimeFactor1</t>
   </si>
   <si>
+    <t>float64</t>
+  </si>
+  <si>
     <t>金币兑换时间参数1</t>
   </si>
   <si>
@@ -70,6 +68,28 @@
     <t>GoldExchangeResource1Price</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
     <t>金币兑换资源1价格</t>
   </si>
   <si>
@@ -103,182 +123,491 @@
     <t>取消建造后返还资源比例</t>
   </si>
   <si>
-    <t>SpawnLevelLimit</t>
-  </si>
-  <si>
-    <t>最大刷新个数显示</t>
-  </si>
-  <si>
-    <t>array&lt;int&gt;</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>FirstRechargeReward</t>
-  </si>
-  <si>
-    <t>首充奖励</t>
-  </si>
-  <si>
-    <t>map&lt;string,int&gt;</t>
-  </si>
-  <si>
-    <t>Food=100;Power=200;Diamond=10</t>
-  </si>
-  <si>
-    <t>程序导出参数</t>
-  </si>
-  <si>
-    <t>class_name</t>
-  </si>
-  <si>
-    <t>GlobalPropertyDefine</t>
-  </si>
-  <si>
-    <t>生成的类名称</t>
-  </si>
-  <si>
-    <t>class_comment</t>
-  </si>
-  <si>
-    <t>全局数值配置</t>
-  </si>
-  <si>
-    <t>key_value_column</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>键值所在列</t>
-  </si>
-  <si>
-    <t>comment_column</t>
-  </si>
-  <si>
-    <t>注释所在列</t>
-  </si>
-  <si>
-    <t>value_type_column</t>
-  </si>
-  <si>
-    <t>值类型所在列</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Enable</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Search</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>b</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ool</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>y</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>es</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开启搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>uint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnLevelLimit</t>
+  </si>
+  <si>
+    <t>array&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>最大刷新个数显示</t>
+  </si>
+  <si>
+    <t>FirstRechargeReward</t>
+  </si>
+  <si>
+    <t>map&lt;string,int&gt;</t>
+  </si>
+  <si>
+    <t>Food=100;Power=200;Diamond=10</t>
+  </si>
+  <si>
+    <t>首充奖励</t>
+  </si>
+  <si>
+    <t>程序导出参数</t>
+  </si>
+  <si>
+    <t>class_name</t>
+  </si>
+  <si>
+    <t>GlobalPropertyDefine</t>
+  </si>
+  <si>
+    <t>生成的类名称</t>
+  </si>
+  <si>
+    <t>class_comment</t>
+  </si>
+  <si>
+    <t>全局数值配置</t>
+  </si>
+  <si>
+    <t>key_value_column</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>名称，类型，值，注释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -286,37 +615,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -332,9 +941,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -458,7 +1064,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -482,9 +1088,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -508,7 +1114,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -561,7 +1167,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -586,330 +1192,309 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.3733333333333" customWidth="true"/>
+    <col min="2" max="2" width="15.1266666666667" style="1" customWidth="true"/>
+    <col min="3" max="3" width="33.1266666666667" style="1" customWidth="true"/>
+    <col min="4" max="4" width="23.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="12.75" customHeight="true" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>48</v>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="true" spans="1:4">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A12 A14:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A12 A14:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.3733333333333" customWidth="true"/>
+    <col min="2" max="2" width="25.6266666666667" style="1" customWidth="true"/>
+    <col min="3" max="3" width="22.2" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/datasheet/全局变量表.xlsx
+++ b/examples/datasheet/全局变量表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9615"/>
+    <workbookView windowWidth="21000" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -127,7 +127,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,7 +137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -149,7 +149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,7 +171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,7 +181,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,7 +234,7 @@
     <t>全局数值配置</t>
   </si>
   <si>
-    <t>key_value_column</t>
+    <t>kv_columns</t>
   </si>
   <si>
     <t>1,2,3,4</t>
@@ -248,46 +248,113 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -295,120 +362,46 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -422,25 +415,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,25 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,127 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,21 +606,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -657,6 +635,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -679,6 +677,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,237 +706,217 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1064,7 +1057,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1088,9 +1081,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1114,7 +1107,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1167,7 +1160,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1192,7 +1185,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1206,16 +1199,16 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.3733333333333" customWidth="true"/>
-    <col min="2" max="2" width="15.1266666666667" style="1" customWidth="true"/>
-    <col min="3" max="3" width="33.1266666666667" style="1" customWidth="true"/>
-    <col min="4" max="4" width="23.5" customWidth="true"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1232,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="true" spans="1:4">
+    <row r="2" ht="12.75" customHeight="1" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="true" spans="1:4">
+    <row r="15" ht="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1446,15 +1439,15 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.3733333333333" customWidth="true"/>
-    <col min="2" max="2" width="25.6266666666667" style="1" customWidth="true"/>
-    <col min="3" max="3" width="22.2" customWidth="true"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/examples/datasheet/全局变量表.xlsx
+++ b/examples/datasheet/全局变量表.xlsx
@@ -4,17 +4,45 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23940" windowHeight="11655"/>
+    <workbookView windowWidth="23715" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalPropertyDefine" sheetId="1" r:id="rId1"/>
+    <sheet name="@meta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>键名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>键值</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
   <si>
     <t>GoldExchangeTimeFactor1</t>
   </si>
@@ -110,6 +138,24 @@
   </si>
   <si>
     <t>首充奖励</t>
+  </si>
+  <si>
+    <t>VIPItemReward</t>
+  </si>
+  <si>
+    <t>map&lt;int,int&gt;</t>
+  </si>
+  <si>
+    <t>1001=100|1002=100|1003=200</t>
+  </si>
+  <si>
+    <t>VIP奖励</t>
+  </si>
+  <si>
+    <t>KVMode</t>
+  </si>
+  <si>
+    <t>ON</t>
   </si>
 </sst>
 </file>
@@ -117,13 +163,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -147,6 +201,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -154,75 +230,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,24 +289,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,23 +321,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,17 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +586,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,6 +619,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -563,43 +644,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,146 +662,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1079,197 +1143,278 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.25</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
         <v>200</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
         <v>180</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
         <v>150</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
         <v>300</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="C12" s="7">
         <v>50</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="13" ht="15.75" spans="1:4">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A1048576 A1:A9">
+  <conditionalFormatting sqref="A4:A12 A14:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/examples/datasheet/全局变量表.xlsx
+++ b/examples/datasheet/全局变量表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="11550"/>
+    <workbookView windowWidth="24465" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalPropertyDefine" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>键名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>键值</t>
+  </si>
+  <si>
+    <t>#Description</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -26,22 +41,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>键名称</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>键值</t>
-  </si>
-  <si>
-    <t>说明</t>
+    <t>金币兑换时间参数1</t>
   </si>
   <si>
     <t>GoldExchangeTimeFactor1</t>
@@ -50,19 +53,19 @@
     <t>float64</t>
   </si>
   <si>
-    <t>金币兑换时间参数1</t>
+    <t>金币兑换时间参数2</t>
   </si>
   <si>
     <t>GoldExchangeTimeFactor2</t>
   </si>
   <si>
-    <t>金币兑换时间参数2</t>
+    <t>金币兑换时间参数3</t>
   </si>
   <si>
     <t>GoldExchangeTimeFactor3</t>
   </si>
   <si>
-    <t>金币兑换时间参数3</t>
+    <t>金币兑换资源1价格</t>
   </si>
   <si>
     <t>GoldExchangeResource1Price</t>
@@ -71,37 +74,37 @@
     <t>uint16</t>
   </si>
   <si>
-    <t>金币兑换资源1价格</t>
+    <t>金币兑换资源2价格</t>
   </si>
   <si>
     <t>GoldExchangeResource2Price</t>
   </si>
   <si>
-    <t>金币兑换资源2价格</t>
+    <t>金币兑换资源3价格</t>
   </si>
   <si>
     <t>GoldExchangeResource3Price</t>
   </si>
   <si>
-    <t>金币兑换资源3价格</t>
+    <t>金币兑换资源4价格</t>
   </si>
   <si>
     <t>GoldExchangeResource4Price</t>
   </si>
   <si>
-    <t>金币兑换资源4价格</t>
+    <t>免费立即完成时间</t>
   </si>
   <si>
     <t>FreeCompleteSeconds</t>
   </si>
   <si>
-    <t>免费立即完成时间</t>
+    <t>取消建造后返还资源比例</t>
   </si>
   <si>
     <t>CancelBuildReturnPercent</t>
   </si>
   <si>
-    <t>取消建造后返还资源比例</t>
+    <t>开启搜索</t>
   </si>
   <si>
     <t>EnableSearch</t>
@@ -113,43 +116,40 @@
     <t>yes</t>
   </si>
   <si>
-    <t>开启搜索</t>
+    <t>最大刷新个数显示</t>
   </si>
   <si>
     <t>SpawnLevelLimit</t>
   </si>
   <si>
-    <t>array&lt;int&gt;</t>
+    <t>int[]</t>
   </si>
   <si>
     <t>1|2|3|4|5</t>
   </si>
   <si>
-    <t>最大刷新个数显示</t>
+    <t>首充奖励</t>
   </si>
   <si>
     <t>FirstRechargeReward</t>
   </si>
   <si>
-    <t>map&lt;string,int&gt;</t>
+    <t>&lt;string,int&gt;</t>
   </si>
   <si>
     <t>Food=100|Power=200|Diamond=10</t>
   </si>
   <si>
-    <t>首充奖励</t>
+    <t>VIP奖励</t>
   </si>
   <si>
     <t>VIPItemReward</t>
   </si>
   <si>
-    <t>map&lt;int,int&gt;</t>
+    <t>&lt;int,int&gt;</t>
   </si>
   <si>
     <t>1001=100|1002=100|1003=200</t>
-  </si>
-  <si>
-    <t>VIP奖励</t>
   </si>
   <si>
     <t>KVMode</t>
@@ -163,12 +163,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,56 +183,114 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,101 +302,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,15 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -589,8 +591,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +602,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,17 +636,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,137 +673,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,18 +811,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1146,246 +1172,247 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="D5" s="11">
         <v>0.25</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
         <v>0.1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11">
         <v>200</v>
       </c>
-      <c r="D7" s="8" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="D8" s="11">
         <v>180</v>
       </c>
-      <c r="D8" s="8" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
-        <v>150</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11">
         <v>300</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:4">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11">
         <v>50</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:4">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:4">
-      <c r="A14" s="6" t="s">
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:4">
-      <c r="A15" s="6" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:4">
-      <c r="A16" s="6" t="s">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="B13">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A12 A14:A1048576">
+  <conditionalFormatting sqref="B4:B12 B14:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/datasheet/全局变量表.xlsx
+++ b/examples/datasheet/全局变量表.xlsx
@@ -15,21 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+  <si>
+    <t>配置人</t>
+  </si>
+  <si>
+    <t>键名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>键值</t>
+  </si>
   <si>
     <t>说明</t>
   </si>
   <si>
-    <t>键名称</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>键值</t>
-  </si>
-  <si>
-    <t>#Description</t>
+    <t>#</t>
   </si>
   <si>
     <t>Key</t>
@@ -41,115 +44,118 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>GoldExchangeTimeFactor1</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
     <t>金币兑换时间参数1</t>
   </si>
   <si>
-    <t>GoldExchangeTimeFactor1</t>
-  </si>
-  <si>
-    <t>float64</t>
+    <t>GoldExchangeTimeFactor2</t>
   </si>
   <si>
     <t>金币兑换时间参数2</t>
   </si>
   <si>
-    <t>GoldExchangeTimeFactor2</t>
+    <t>GoldExchangeTimeFactor3</t>
   </si>
   <si>
     <t>金币兑换时间参数3</t>
   </si>
   <si>
-    <t>GoldExchangeTimeFactor3</t>
+    <t>GoldExchangeResource1Price</t>
+  </si>
+  <si>
+    <t>uint16</t>
   </si>
   <si>
     <t>金币兑换资源1价格</t>
   </si>
   <si>
-    <t>GoldExchangeResource1Price</t>
-  </si>
-  <si>
-    <t>uint16</t>
+    <t>GoldExchangeResource2Price</t>
   </si>
   <si>
     <t>金币兑换资源2价格</t>
   </si>
   <si>
-    <t>GoldExchangeResource2Price</t>
+    <t>GoldExchangeResource3Price</t>
   </si>
   <si>
     <t>金币兑换资源3价格</t>
   </si>
   <si>
-    <t>GoldExchangeResource3Price</t>
+    <t>GoldExchangeResource4Price</t>
   </si>
   <si>
     <t>金币兑换资源4价格</t>
   </si>
   <si>
-    <t>GoldExchangeResource4Price</t>
+    <t>FreeCompleteSeconds</t>
   </si>
   <si>
     <t>免费立即完成时间</t>
   </si>
   <si>
-    <t>FreeCompleteSeconds</t>
+    <t>CancelBuildReturnPercent</t>
   </si>
   <si>
     <t>取消建造后返还资源比例</t>
   </si>
   <si>
-    <t>CancelBuildReturnPercent</t>
+    <t>EnableSearch</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>开启搜索</t>
   </si>
   <si>
-    <t>EnableSearch</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>SpawnLevelLimit</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5</t>
   </si>
   <si>
     <t>最大刷新个数显示</t>
   </si>
   <si>
-    <t>SpawnLevelLimit</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>1|2|3|4|5</t>
+    <t>FirstRechargeReward</t>
+  </si>
+  <si>
+    <t>&lt;string,int&gt;</t>
+  </si>
+  <si>
+    <t>Food=100|Power=200|Diamond=10</t>
   </si>
   <si>
     <t>首充奖励</t>
   </si>
   <si>
-    <t>FirstRechargeReward</t>
-  </si>
-  <si>
-    <t>&lt;string,int&gt;</t>
-  </si>
-  <si>
-    <t>Food=100|Power=200|Diamond=10</t>
+    <t>VIPItemReward</t>
+  </si>
+  <si>
+    <t>&lt;int,int&gt;</t>
+  </si>
+  <si>
+    <t>1001=100|1002=100|1003=200</t>
   </si>
   <si>
     <t>VIP奖励</t>
-  </si>
-  <si>
-    <t>VIPItemReward</t>
-  </si>
-  <si>
-    <t>&lt;int,int&gt;</t>
-  </si>
-  <si>
-    <t>1001=100|1002=100|1003=200</t>
   </si>
   <si>
     <t>KVMode</t>
@@ -198,13 +204,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -803,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,12 +823,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -833,10 +833,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1169,243 +1169,249 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11">
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11">
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="8">
+        <v>180</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8">
+        <v>150</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11">
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11">
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11" t="s">
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11" t="s">
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="2:5">
+      <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1434,10 +1440,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/examples/datasheet/全局变量表.xlsx
+++ b/examples/datasheet/全局变量表.xlsx
@@ -4,35 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24465" windowHeight="11790"/>
+    <workbookView windowWidth="25455" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalPropertyDefine" sheetId="1" r:id="rId1"/>
-    <sheet name="@meta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
-  <si>
-    <t>配置人</t>
-  </si>
-  <si>
-    <t>键名称</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>键值</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>#</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>#配置人</t>
   </si>
   <si>
     <t>Key</t>
@@ -44,16 +31,16 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>$Description</t>
+  </si>
+  <si>
+    <t>匿名</t>
   </si>
   <si>
     <t>GoldExchangeTimeFactor1</t>
   </si>
   <si>
-    <t>float64</t>
+    <t xml:space="preserve">float </t>
   </si>
   <si>
     <t>金币兑换时间参数1</t>
@@ -74,7 +61,7 @@
     <t>GoldExchangeResource1Price</t>
   </si>
   <si>
-    <t>uint16</t>
+    <t>int</t>
   </si>
   <si>
     <t>金币兑换资源1价格</t>
@@ -116,9 +103,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>开启搜索</t>
   </si>
   <si>
@@ -156,12 +140,6 @@
   </si>
   <si>
     <t>VIP奖励</t>
-  </si>
-  <si>
-    <t>KVMode</t>
-  </si>
-  <si>
-    <t>ON</t>
   </si>
 </sst>
 </file>
@@ -174,16 +152,8 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+  <fonts count="24">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -667,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,33 +649,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,127 +688,121 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,41 +1136,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="33.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1211,243 +1182,265 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:5">
-      <c r="B3" s="3" t="s">
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>200</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>180</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7">
+        <v>150</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7">
+        <v>300</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:5">
-      <c r="B4" s="7" t="s">
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:5">
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:5">
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:5">
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8">
-        <v>200</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:5">
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8">
-        <v>180</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:5">
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8">
-        <v>150</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:5">
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8">
-        <v>20</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:5">
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8">
-        <v>300</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:5">
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8">
-        <v>50</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:5">
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:5">
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:5">
-      <c r="B15" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="F14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:5">
-      <c r="B16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="C11">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B12 B14:B1048576">
+  <conditionalFormatting sqref="C2:C10 C12:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>